--- a/assets/WhatIsComputerSheets.xlsx
+++ b/assets/WhatIsComputerSheets.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="40" windowWidth="25040" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>What Is A Computer?</t>
   </si>
@@ -123,6 +124,39 @@
       </rPr>
       <t xml:space="preserve"> (These are just possible, you can come up with new ones): Office, Research, Science, Games, Information, Entertainment</t>
     </r>
+  </si>
+  <si>
+    <t>What Parts are in a Computer?</t>
+  </si>
+  <si>
+    <t>What parts do you think are part of a computer:</t>
+  </si>
+  <si>
+    <t>Parts of a CPU</t>
+  </si>
+  <si>
+    <t>Fill In the Parts of the CPU</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>What operating systems have you heard of:</t>
+  </si>
+  <si>
+    <t>Software Types</t>
+  </si>
+  <si>
+    <t>Write down pieces of software you know in the following types:</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
   </si>
 </sst>
 </file>
@@ -233,7 +267,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,8 +323,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -299,26 +339,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,8 +360,17 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -355,6 +398,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -382,11 +428,63 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690381</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="empty.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127001" y="2184400"/>
+          <a:ext cx="5516380" cy="2921000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
@@ -723,366 +821,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
@@ -1140,16 +1238,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:G19"/>
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G29"/>
+    <mergeCell ref="A32:G38"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:G6"/>
     <mergeCell ref="A7:G8"/>
     <mergeCell ref="A9:G12"/>
     <mergeCell ref="A13:G14"/>
-    <mergeCell ref="A15:G19"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G29"/>
-    <mergeCell ref="A32:G38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1178,406 +1276,437 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="I6:K8"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="E17:F18"/>
     <mergeCell ref="I21:K22"/>
     <mergeCell ref="I23:K24"/>
     <mergeCell ref="I25:K26"/>
@@ -1594,37 +1723,6 @@
     <mergeCell ref="E23:F24"/>
     <mergeCell ref="G23:H24"/>
     <mergeCell ref="E25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="I6:K8"/>
-    <mergeCell ref="E19:F20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1640,4 +1738,470 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="13"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A24:G25"/>
+    <mergeCell ref="A26:G29"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A10:G23"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G6"/>
+    <mergeCell ref="A7:G8"/>
+    <mergeCell ref="A34:B38"/>
+    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="F34:G38"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;G&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawingHF r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/assets/WhatIsComputerSheets.xlsx
+++ b/assets/WhatIsComputerSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="1940" yWindow="0" windowWidth="26840" windowHeight="16060" tabRatio="500" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet1 (6)" sheetId="10" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet1 (7)" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet1 (8)" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="top" localSheetId="9">Sheet9!$A$1</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="128">
   <si>
     <t>What Is A Computer?</t>
   </si>
@@ -439,6 +440,24 @@
   <si>
     <t>0111001</t>
   </si>
+  <si>
+    <t>A Computer Simulation</t>
+  </si>
+  <si>
+    <t>What you think a computer simulation is:</t>
+  </si>
+  <si>
+    <t>What do you think a simulation could be used for:</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t>What are benefits that simulations could be?</t>
+  </si>
+  <si>
+    <t>What could be the limitations of simulations?</t>
+  </si>
 </sst>
 </file>
 
@@ -723,8 +742,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1094,7 +1175,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1171,6 +1252,37 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1247,6 +1359,37 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2843,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3620,6 +3763,394 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;G&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="48"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+    </row>
+    <row r="23" spans="1:7" ht="29" customHeight="1">
+      <c r="A23" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
+    </row>
+    <row r="24" spans="1:7" ht="29" customHeight="1">
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A13:G17"/>
+    <mergeCell ref="A18:G22"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A25:G31"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G6"/>
+    <mergeCell ref="A9:G12"/>
+    <mergeCell ref="A7:G8"/>
+  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/WhatIsComputerSheets.xlsx
+++ b/assets/WhatIsComputerSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
   <si>
     <t>What Is A Computer?</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>Write the steps for making and buttering toast</t>
+  </si>
+  <si>
+    <t>Corridor Navigation 3</t>
+  </si>
+  <si>
+    <t>Corridor Navigation Recap</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1324,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="279">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1640,20 +1660,32 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1662,13 +1694,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,15 +1756,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1713,33 +1772,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1814,27 +1846,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1853,137 +1864,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2030,11 +1921,140 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="279">
+  <cellStyles count="293">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2174,6 +2194,13 @@
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2313,6 +2340,13 @@
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2703,366 +2737,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
+      <c r="A32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
@@ -3120,16 +3154,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G6"/>
+    <mergeCell ref="A7:G8"/>
+    <mergeCell ref="A9:G12"/>
+    <mergeCell ref="A13:G14"/>
     <mergeCell ref="A15:G19"/>
     <mergeCell ref="A30:G31"/>
     <mergeCell ref="A20:G24"/>
     <mergeCell ref="A25:G29"/>
     <mergeCell ref="A32:G38"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G6"/>
-    <mergeCell ref="A7:G8"/>
-    <mergeCell ref="A9:G12"/>
-    <mergeCell ref="A13:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4648,250 +4682,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
@@ -4938,10 +4972,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR31"/>
+  <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O22"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="Y8" sqref="Y8:Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4952,906 +4986,1382 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:44" ht="18" customHeight="1" thickBot="1">
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="I2" s="74" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="77" t="s">
+      <c r="L2" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="74" t="s">
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="121" t="s">
+      <c r="X2" s="117"/>
+      <c r="Y2" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="128" t="s">
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="124" t="s">
+      <c r="AC2" s="127" t="s">
         <v>129</v>
       </c>
       <c r="AD2" s="113"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="98"/>
-      <c r="AH2" s="77" t="s">
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="105"/>
+      <c r="AH2" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="131" t="s">
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="AM2" s="132"/>
-      <c r="AN2" s="132"/>
-      <c r="AO2" s="133"/>
-      <c r="AP2" s="81" t="s">
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="83"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="80"/>
     </row>
     <row r="3" spans="2:44">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="I3" s="74"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="74"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="84"/>
       <c r="R3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="125"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="121"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="125"/>
+      <c r="AC3" s="128"/>
       <c r="AD3" s="114"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="99"/>
-      <c r="AH3" s="77"/>
-      <c r="AI3" s="77"/>
-      <c r="AJ3" s="77"/>
-      <c r="AK3" s="77"/>
-      <c r="AL3" s="134"/>
-      <c r="AM3" s="135"/>
-      <c r="AN3" s="135"/>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="86"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="106"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="83"/>
     </row>
     <row r="4" spans="2:44" ht="19" thickBot="1">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="I4" s="74"/>
-      <c r="L4" s="17" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="I4" s="84"/>
+      <c r="L4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="74"/>
-      <c r="W4" s="130" t="s">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="84"/>
+      <c r="W4" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="126"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="121"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="126"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="114"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="127" t="s">
+      <c r="AE4" s="104"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
-      <c r="AK4" s="17"/>
-      <c r="AL4" s="137"/>
-      <c r="AM4" s="138"/>
-      <c r="AN4" s="138"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="74"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="74"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
     </row>
     <row r="5" spans="2:44" ht="19" thickTop="1">
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="I5" s="74"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="74"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="119"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="98"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="90"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="17"/>
-      <c r="AL5" s="140"/>
-      <c r="AM5" s="141"/>
-      <c r="AN5" s="141"/>
-      <c r="AO5" s="142"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="I5" s="84"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="84"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
     </row>
     <row r="6" spans="2:44">
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="I6" s="74"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="74"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="130"/>
-      <c r="X6" s="103"/>
-      <c r="Y6" s="111"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="74"/>
-      <c r="AB6" s="99"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="118"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="106"/>
       <c r="AC6" s="114"/>
-      <c r="AD6" s="74"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="127"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17"/>
-      <c r="AL6" s="140"/>
-      <c r="AM6" s="141"/>
-      <c r="AN6" s="141"/>
-      <c r="AO6" s="142"/>
-      <c r="AP6" s="74"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="74"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="I7" s="74"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="74"/>
-      <c r="W7" s="130"/>
-      <c r="X7" s="103"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="97"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="100"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="I7" s="84"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="84"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="107"/>
       <c r="AC7" s="114"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="105"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
       <c r="AF7" s="109"/>
-      <c r="AG7" s="127"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="17"/>
-      <c r="AL7" s="140"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="141"/>
-      <c r="AO7" s="142"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
     </row>
     <row r="8" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="I8" s="74"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="74"/>
-      <c r="W8" s="130"/>
-      <c r="X8" s="103"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="120"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="I8" s="84"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="84"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="122"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="137"/>
       <c r="AA8" s="114"/>
-      <c r="AB8" s="90"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="98"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="105"/>
       <c r="AE8" s="113"/>
-      <c r="AF8" s="98"/>
-      <c r="AG8" s="127"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17"/>
-      <c r="AL8" s="140"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="142"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
     </row>
     <row r="9" spans="2:44">
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="I9" s="74"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="74"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W9" s="130"/>
-      <c r="X9" s="103"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="111"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="122"/>
+      <c r="Y9" s="115"/>
+      <c r="Z9" s="115"/>
       <c r="AA9" s="114"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="99"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="106"/>
       <c r="AE9" s="114"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="127"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="140"/>
-      <c r="AM9" s="141"/>
-      <c r="AN9" s="141"/>
-      <c r="AO9" s="142"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="74"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
     </row>
     <row r="10" spans="2:44" ht="19" thickBot="1">
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="I10" s="74"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="88"/>
-      <c r="Q10" s="74"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="111"/>
-      <c r="AA10" s="117"/>
-      <c r="AB10" s="91"/>
-      <c r="AC10" s="74"/>
-      <c r="AD10" s="100"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="I10" s="84"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="84"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="123"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="104"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="107"/>
       <c r="AE10" s="114"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="127"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="140"/>
-      <c r="AM10" s="141"/>
-      <c r="AN10" s="141"/>
-      <c r="AO10" s="142"/>
-      <c r="AP10" s="74"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="74"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
     </row>
     <row r="11" spans="2:44" ht="19" thickTop="1">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="I11" s="74"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="74"/>
-      <c r="W11" s="130"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
-      <c r="AA11" s="121" t="s">
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="I11" s="84"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="84"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="74"/>
-      <c r="AD11" s="102"/>
-      <c r="AE11" s="111"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="115"/>
       <c r="AF11" s="110"/>
-      <c r="AG11" s="127"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="140"/>
-      <c r="AM11" s="141"/>
-      <c r="AN11" s="141"/>
-      <c r="AO11" s="142"/>
-      <c r="AP11" s="74"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="I12" s="74"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="74"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="84"/>
       <c r="R12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="130"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
-      <c r="AA12" s="122"/>
-      <c r="AB12" s="74"/>
-      <c r="AC12" s="74"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="111"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="118"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="125"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="115"/>
       <c r="AF12" s="110"/>
-      <c r="AG12" s="127"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="141"/>
-      <c r="AN12" s="141"/>
-      <c r="AO12" s="142"/>
-      <c r="AP12" s="74"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
     </row>
     <row r="13" spans="2:44" ht="19" thickBot="1">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="I13" s="74"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="74"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="I13" s="84"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="84"/>
       <c r="S13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W13" s="130"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="123"/>
-      <c r="AB13" s="105"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="111"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="126"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="121"/>
+      <c r="AE13" s="115"/>
       <c r="AF13" s="110"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17"/>
-      <c r="AL13" s="140"/>
-      <c r="AM13" s="141"/>
-      <c r="AN13" s="141"/>
-      <c r="AO13" s="142"/>
-      <c r="AP13" s="74"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="74"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
     </row>
     <row r="14" spans="2:44" ht="19" thickTop="1">
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="I14" s="75"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="74"/>
-      <c r="W14" s="130"/>
-      <c r="X14" s="92"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="94"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="103"/>
-      <c r="AE14" s="111"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="I14" s="143"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="84"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="117"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="131"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="115"/>
       <c r="AF14" s="110"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17"/>
-      <c r="AL14" s="140"/>
-      <c r="AM14" s="141"/>
-      <c r="AN14" s="141"/>
-      <c r="AO14" s="142"/>
-      <c r="AP14" s="74"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="74"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
     </row>
     <row r="15" spans="2:44">
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="I15" s="75"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="I15" s="143"/>
       <c r="J15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="74"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="84"/>
       <c r="U15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W15" s="130"/>
-      <c r="X15" s="92"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="92"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="99"/>
-      <c r="AC15" s="108"/>
-      <c r="AD15" s="103"/>
-      <c r="AE15" s="111"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="131"/>
+      <c r="AD15" s="122"/>
+      <c r="AE15" s="115"/>
       <c r="AF15" s="110"/>
-      <c r="AG15" s="127"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17"/>
-      <c r="AL15" s="140"/>
-      <c r="AM15" s="141"/>
-      <c r="AN15" s="141"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="74"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="74"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
     </row>
     <row r="16" spans="2:44" ht="19" thickBot="1">
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="I16" s="75"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="74"/>
-      <c r="W16" s="130"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="108"/>
-      <c r="AD16" s="104"/>
-      <c r="AE16" s="112"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="I16" s="143"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="84"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="131"/>
+      <c r="AD16" s="123"/>
+      <c r="AE16" s="116"/>
       <c r="AF16" s="110"/>
-      <c r="AG16" s="127"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="140"/>
-      <c r="AM16" s="141"/>
-      <c r="AN16" s="141"/>
-      <c r="AO16" s="142"/>
-      <c r="AP16" s="74"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="74"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
     </row>
     <row r="17" spans="1:44" ht="19" thickTop="1">
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="I17" s="74"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="T17" s="74"/>
-      <c r="W17" s="130"/>
-      <c r="X17" s="94"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="102"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="121" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="I17" s="84"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="T17" s="84"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="124" t="s">
         <v>129</v>
       </c>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="140"/>
-      <c r="AM17" s="141"/>
-      <c r="AN17" s="141"/>
-      <c r="AO17" s="142"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="74"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="I18" s="74"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
-      <c r="T18" s="74"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="T18" s="84"/>
       <c r="U18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W18" s="130"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="92"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="140"/>
-      <c r="AM18" s="141"/>
-      <c r="AN18" s="141"/>
-      <c r="AO18" s="142"/>
-      <c r="AP18" s="74"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="74"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="121"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="125"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
     </row>
     <row r="19" spans="1:44" ht="19" thickBot="1">
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="I19" s="74"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="T19" s="74"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="74"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="105"/>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="99"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="140"/>
-      <c r="AM19" s="141"/>
-      <c r="AN19" s="141"/>
-      <c r="AO19" s="142"/>
-      <c r="AP19" s="74"/>
-      <c r="AQ19" s="74"/>
-      <c r="AR19" s="74"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="I19" s="84"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="T19" s="84"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="106"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
     </row>
     <row r="20" spans="1:44" ht="19" thickTop="1">
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="I20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
-      <c r="T20" s="74" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="T20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="92"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="124" t="s">
+      <c r="X20" s="117"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="AC20" s="94"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="95"/>
-      <c r="AF20" s="99"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="140"/>
-      <c r="AM20" s="141"/>
-      <c r="AN20" s="141"/>
-      <c r="AO20" s="142"/>
-      <c r="AP20" s="74"/>
-      <c r="AQ20" s="74"/>
-      <c r="AR20" s="74"/>
+      <c r="AC20" s="117"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="106"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="I21" s="74"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
-      <c r="T21" s="74"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="T21" s="84"/>
       <c r="U21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="74"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="92"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="99"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="140"/>
-      <c r="AM21" s="141"/>
-      <c r="AN21" s="141"/>
-      <c r="AO21" s="142"/>
-      <c r="AP21" s="74"/>
-      <c r="AQ21" s="74"/>
-      <c r="AR21" s="74"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="106"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
     </row>
     <row r="22" spans="1:44" ht="19" thickBot="1">
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="I22" s="74"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
-      <c r="T22" s="74"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="101"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="91"/>
-      <c r="AB22" s="129"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="91"/>
-      <c r="AE22" s="91"/>
-      <c r="AF22" s="100"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="143"/>
-      <c r="AM22" s="144"/>
-      <c r="AN22" s="144"/>
-      <c r="AO22" s="145"/>
-      <c r="AP22" s="74"/>
-      <c r="AQ22" s="74"/>
-      <c r="AR22" s="74"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="I22" s="84"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="T22" s="84"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="119"/>
+      <c r="AD22" s="104"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="107"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="102"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
     </row>
     <row r="23" spans="1:44" ht="29" customHeight="1" thickTop="1"/>
-    <row r="24" spans="1:44" ht="29" customHeight="1"/>
+    <row r="24" spans="1:44" ht="29" customHeight="1">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="17"/>
+      <c r="H25" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="Q25" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="T25" s="84" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="17"/>
+      <c r="G26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="84"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="T26" s="84"/>
+      <c r="U26" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="18"/>
+      <c r="H27" s="84"/>
+      <c r="L27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="Q27" s="84"/>
+      <c r="T27" s="84"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="18"/>
+      <c r="H28" s="84"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="Q28" s="84"/>
+      <c r="T28" s="143"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="18"/>
+      <c r="G29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H29" s="84"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T29" s="143"/>
+      <c r="U29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="H30" s="84"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="Q30" s="84"/>
+      <c r="T30" s="143"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="H31" s="84"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="Q31" s="143"/>
+      <c r="T31" s="84"/>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="18"/>
+      <c r="G32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="84"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="T32" s="84"/>
+      <c r="U32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="18"/>
+      <c r="H33" s="84"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="Q33" s="143"/>
+      <c r="T33" s="84"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="17"/>
+      <c r="H34" s="84"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="Q34" s="84"/>
+      <c r="T34" s="84"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="17"/>
+      <c r="G35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="84"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" s="84"/>
+      <c r="U35" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="19"/>
+      <c r="H36" s="84"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="Q36" s="84"/>
+      <c r="T36" s="84"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="Q37" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="T37" s="143"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="Q38" s="84"/>
+      <c r="R38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T38" s="143"/>
+      <c r="U38" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="Q39" s="84"/>
+      <c r="T39" s="143"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="I40" s="143"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="T40" s="84"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="I42" s="143"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="T42" s="84"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="I43" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="T43" s="84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="I45" s="84"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="T45" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
+  <mergeCells count="121">
+    <mergeCell ref="T40:T42"/>
+    <mergeCell ref="T43:T45"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="L25:O26"/>
+    <mergeCell ref="L27:O45"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A27:D45"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B4:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B13:D22"/>
+    <mergeCell ref="E13:G22"/>
+    <mergeCell ref="L2:O3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="L4:O22"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AB14:AB16"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AB20:AB22"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AA14:AA16"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AE14:AE16"/>
     <mergeCell ref="AP2:AR3"/>
     <mergeCell ref="AP4:AR22"/>
     <mergeCell ref="AG4:AG18"/>
@@ -5868,85 +6378,6 @@
     <mergeCell ref="AF14:AF16"/>
     <mergeCell ref="AF17:AF19"/>
     <mergeCell ref="AF20:AF22"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AA14:AA16"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="B13:D22"/>
-    <mergeCell ref="E13:G22"/>
-    <mergeCell ref="L2:O3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="L4:O22"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B4:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="T14:T16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5968,7 +6399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:M36"/>
     </sheetView>
   </sheetViews>
@@ -5981,80 +6412,80 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" customHeight="1"/>
     <row r="2" spans="2:13" ht="18" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="I2" s="77" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="I2" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1">
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="146" t="s">
@@ -6446,421 +6877,422 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="23" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="I6:K8"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="E25:F26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D12"/>
@@ -6877,22 +7309,21 @@
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="I9:K10"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="I6:K8"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="E17:F18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6924,368 +7355,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25" t="s">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25" t="s">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
@@ -7343,6 +7774,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A34:B38"/>
+    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="F34:G38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A10:G23"/>
     <mergeCell ref="A1:G2"/>
@@ -7352,12 +7789,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A24:G25"/>
     <mergeCell ref="A26:G29"/>
-    <mergeCell ref="A34:B38"/>
-    <mergeCell ref="C34:E38"/>
-    <mergeCell ref="F34:G38"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7390,304 +7821,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1"/>
     <row r="25" spans="1:14" ht="18" customHeight="1"/>
@@ -11408,154 +11839,154 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:38" ht="18" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="26">
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="42">
         <v>4</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26">
+      <c r="G24" s="43"/>
+      <c r="H24" s="42">
         <v>5</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26">
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
         <v>6</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26">
+      <c r="K24" s="43"/>
+      <c r="L24" s="42">
         <v>7</v>
       </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="26">
-        <v>8</v>
-      </c>
-      <c r="O24" s="27"/>
-      <c r="P24" s="26">
-        <v>9</v>
-      </c>
-      <c r="Q24" s="30"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="42">
+        <v>8</v>
+      </c>
+      <c r="O24" s="43"/>
+      <c r="P24" s="42">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="46"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:38" ht="18" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="40"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="53"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="5"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
+      <c r="I26" s="43"/>
+      <c r="J26" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="43"/>
+      <c r="L26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="26" t="s">
+      <c r="M26" s="43"/>
+      <c r="N26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="27"/>
-      <c r="P26" s="26" t="s">
+      <c r="O26" s="43"/>
+      <c r="P26" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="30"/>
+      <c r="Q26" s="46"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="5"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="31"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="47"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
     </row>
@@ -15155,142 +15586,142 @@
       <c r="AL21" s="8"/>
     </row>
     <row r="22" spans="1:38">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
     </row>
     <row r="24" spans="1:38" ht="18" customHeight="1">
       <c r="A24" s="5"/>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="26">
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="42">
         <v>5</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="26">
+      <c r="G24" s="43"/>
+      <c r="H24" s="42">
         <v>6</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26">
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
         <v>7</v>
       </c>
-      <c r="K24" s="27"/>
-      <c r="L24" s="26">
-        <v>8</v>
-      </c>
-      <c r="M24" s="27"/>
-      <c r="N24" s="26">
-        <v>9</v>
-      </c>
-      <c r="O24" s="27"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="42">
+        <v>8</v>
+      </c>
+      <c r="M24" s="43"/>
+      <c r="N24" s="42">
+        <v>9</v>
+      </c>
+      <c r="O24" s="43"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:38" ht="18" customHeight="1">
       <c r="A25" s="5"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="39"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="52"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:38">
       <c r="A26" s="5"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="26" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="43"/>
+      <c r="H26" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26" t="s">
+      <c r="I26" s="43"/>
+      <c r="J26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="26" t="s">
+      <c r="K26" s="43"/>
+      <c r="L26" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="27"/>
-      <c r="N26" s="26" t="s">
+      <c r="M26" s="43"/>
+      <c r="N26" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="27"/>
+      <c r="O26" s="43"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="1:38">
       <c r="A27" s="5"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="29"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
@@ -15409,303 +15840,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" spans="1:7" ht="29" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="71"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="71"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
     </row>
     <row r="12" spans="1:7" ht="29" customHeight="1">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
+      <c r="A13" s="66"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="53"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="65"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>

--- a/assets/WhatIsComputerSheets.xlsx
+++ b/assets/WhatIsComputerSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet1 (8)" sheetId="13" r:id="rId12"/>
     <sheet name="Sheet1 (9)" sheetId="14" r:id="rId13"/>
     <sheet name="Sheet1 (10)" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet1 (11)" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="top" localSheetId="9">Sheet9!$A$1</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="147">
   <si>
     <t>What Is A Computer?</t>
   </si>
@@ -513,6 +514,9 @@
   </si>
   <si>
     <t>Corridor Navigation Recap</t>
+  </si>
+  <si>
+    <t>Words</t>
   </si>
 </sst>
 </file>
@@ -1672,20 +1676,20 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1694,10 +1698,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1846,6 +1850,132 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,17 +1994,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1921,21 +2045,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1944,111 +2053,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2737,366 +2741,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="A32" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
@@ -3154,16 +3158,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:G19"/>
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="A20:G24"/>
+    <mergeCell ref="A25:G29"/>
+    <mergeCell ref="A32:G38"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:G6"/>
     <mergeCell ref="A7:G8"/>
     <mergeCell ref="A9:G12"/>
     <mergeCell ref="A13:G14"/>
-    <mergeCell ref="A15:G19"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A20:G24"/>
-    <mergeCell ref="A25:G29"/>
-    <mergeCell ref="A32:G38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4682,250 +4686,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
@@ -4974,7 +4978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="Y8" sqref="Y8:Y10"/>
     </sheetView>
   </sheetViews>
@@ -4992,877 +4996,877 @@
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="I2" s="84" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="I2" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="87" t="s">
+      <c r="L2" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="124" t="s">
+      <c r="X2" s="84"/>
+      <c r="Y2" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="132" t="s">
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="105" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="127" t="s">
+      <c r="AC2" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="105"/>
-      <c r="AH2" s="87" t="s">
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="106"/>
+      <c r="AH2" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="88" t="s">
+      <c r="AI2" s="80"/>
+      <c r="AJ2" s="80"/>
+      <c r="AK2" s="80"/>
+      <c r="AL2" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="90"/>
-      <c r="AP2" s="78" t="s">
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="AQ2" s="79"/>
-      <c r="AR2" s="80"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="122"/>
     </row>
     <row r="3" spans="2:44">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="I3" s="84"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="84"/>
+      <c r="Q3" s="78"/>
       <c r="R3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="106"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="87"/>
-      <c r="AJ3" s="87"/>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="91"/>
-      <c r="AM3" s="92"/>
-      <c r="AN3" s="92"/>
-      <c r="AO3" s="93"/>
-      <c r="AP3" s="81"/>
-      <c r="AQ3" s="82"/>
-      <c r="AR3" s="83"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="107"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="132"/>
+      <c r="AN3" s="132"/>
+      <c r="AO3" s="133"/>
+      <c r="AP3" s="123"/>
+      <c r="AQ3" s="124"/>
+      <c r="AR3" s="125"/>
     </row>
     <row r="4" spans="2:44" ht="19" thickBot="1">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="I4" s="84"/>
-      <c r="L4" s="20" t="s">
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="I4" s="78"/>
+      <c r="L4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="84"/>
-      <c r="W4" s="86" t="s">
+      <c r="Q4" s="78"/>
+      <c r="W4" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="114"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="101"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="112"/>
       <c r="AE4" s="104"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="85" t="s">
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="126" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="94"/>
-      <c r="AM4" s="95"/>
-      <c r="AN4" s="95"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="134"/>
+      <c r="AM4" s="135"/>
+      <c r="AN4" s="135"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
     </row>
     <row r="5" spans="2:44" ht="19" thickTop="1">
-      <c r="B5" s="144"/>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="144"/>
-      <c r="G5" s="144"/>
-      <c r="I5" s="84"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="I5" s="78"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="84"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="139"/>
-      <c r="Y5" s="138"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="105"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" s="20"/>
-      <c r="AK5" s="20"/>
-      <c r="AL5" s="97"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="84"/>
-      <c r="AQ5" s="84"/>
-      <c r="AR5" s="84"/>
+      <c r="Q5" s="78"/>
+      <c r="W5" s="127"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="102"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="78"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="143"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="137"/>
+      <c r="AM5" s="138"/>
+      <c r="AN5" s="138"/>
+      <c r="AO5" s="139"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
     </row>
     <row r="6" spans="2:44">
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="I6" s="84"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="84"/>
+      <c r="Q6" s="78"/>
       <c r="R6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="86"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="118"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="114"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="106"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20"/>
-      <c r="AL6" s="97"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="84"/>
-      <c r="AQ6" s="84"/>
-      <c r="AR6" s="84"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="107"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="78"/>
+      <c r="AE6" s="78"/>
+      <c r="AF6" s="107"/>
+      <c r="AG6" s="126"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="137"/>
+      <c r="AM6" s="138"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="78"/>
+      <c r="AQ6" s="78"/>
+      <c r="AR6" s="78"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="I7" s="84"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="I7" s="78"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="84"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="115"/>
-      <c r="Z7" s="119"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="20"/>
-      <c r="AL7" s="97"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="84"/>
-      <c r="AQ7" s="84"/>
-      <c r="AR7" s="84"/>
+      <c r="Q7" s="78"/>
+      <c r="W7" s="127"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="112"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="144"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
+      <c r="AK7" s="21"/>
+      <c r="AL7" s="137"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="139"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
     </row>
     <row r="8" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="I8" s="84"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="I8" s="78"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="84"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="97"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="99"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
+      <c r="Q8" s="78"/>
+      <c r="W8" s="127"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="78"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="106"/>
+      <c r="AG8" s="126"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="137"/>
+      <c r="AM8" s="138"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="139"/>
+      <c r="AP8" s="78"/>
+      <c r="AQ8" s="78"/>
+      <c r="AR8" s="78"/>
     </row>
     <row r="9" spans="2:44">
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="I9" s="84"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="84"/>
+      <c r="Q9" s="78"/>
       <c r="R9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W9" s="86"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="115"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="106"/>
-      <c r="AG9" s="85"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="97"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="99"/>
-      <c r="AP9" s="84"/>
-      <c r="AQ9" s="84"/>
-      <c r="AR9" s="84"/>
+      <c r="W9" s="127"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="96"/>
+      <c r="Z9" s="96"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="78"/>
+      <c r="AC9" s="78"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="107"/>
+      <c r="AG9" s="126"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="137"/>
+      <c r="AM9" s="138"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="139"/>
+      <c r="AP9" s="78"/>
+      <c r="AQ9" s="78"/>
+      <c r="AR9" s="78"/>
     </row>
     <row r="10" spans="2:44" ht="19" thickBot="1">
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="I10" s="84"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="I10" s="78"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="84"/>
-      <c r="W10" s="86"/>
-      <c r="X10" s="123"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="134"/>
+      <c r="Q10" s="78"/>
+      <c r="W10" s="127"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="104"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="20"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="99"/>
-      <c r="AP10" s="84"/>
-      <c r="AQ10" s="84"/>
-      <c r="AR10" s="84"/>
+      <c r="AC10" s="78"/>
+      <c r="AD10" s="108"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="126"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
+      <c r="AK10" s="21"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="138"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="139"/>
+      <c r="AP10" s="78"/>
+      <c r="AQ10" s="78"/>
+      <c r="AR10" s="78"/>
     </row>
     <row r="11" spans="2:44" ht="19" thickTop="1">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="I11" s="84"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="I11" s="78"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="84"/>
-      <c r="W11" s="86"/>
-      <c r="X11" s="140"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="124" t="s">
+      <c r="Q11" s="78"/>
+      <c r="W11" s="127"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="78"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="84"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="115"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="85"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="98"/>
-      <c r="AN11" s="98"/>
-      <c r="AO11" s="99"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="84"/>
+      <c r="AB11" s="103"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="126"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
+      <c r="AK11" s="21"/>
+      <c r="AL11" s="137"/>
+      <c r="AM11" s="138"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="139"/>
+      <c r="AP11" s="78"/>
+      <c r="AQ11" s="78"/>
+      <c r="AR11" s="78"/>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="I12" s="84"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="84"/>
+      <c r="Q12" s="78"/>
       <c r="R12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="86"/>
-      <c r="X12" s="118"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="84"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="84"/>
-      <c r="AC12" s="84"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="115"/>
-      <c r="AF12" s="110"/>
-      <c r="AG12" s="85"/>
-      <c r="AH12" s="20"/>
-      <c r="AI12" s="20"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="20"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="98"/>
-      <c r="AN12" s="98"/>
-      <c r="AO12" s="99"/>
-      <c r="AP12" s="84"/>
-      <c r="AQ12" s="84"/>
-      <c r="AR12" s="84"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="85"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="100"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="78"/>
+      <c r="AD12" s="92"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="126"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="21"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="138"/>
+      <c r="AN12" s="138"/>
+      <c r="AO12" s="139"/>
+      <c r="AP12" s="78"/>
+      <c r="AQ12" s="78"/>
+      <c r="AR12" s="78"/>
     </row>
     <row r="13" spans="2:44" ht="19" thickBot="1">
-      <c r="B13" s="142" t="s">
+      <c r="B13" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="I13" s="84"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="I13" s="78"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="84"/>
+      <c r="Q13" s="78"/>
       <c r="S13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W13" s="86"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="112"/>
-      <c r="Z13" s="112"/>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="112"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="121"/>
-      <c r="AE13" s="115"/>
-      <c r="AF13" s="110"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="20"/>
-      <c r="AI13" s="20"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="20"/>
-      <c r="AL13" s="97"/>
-      <c r="AM13" s="98"/>
-      <c r="AN13" s="98"/>
-      <c r="AO13" s="99"/>
-      <c r="AP13" s="84"/>
-      <c r="AQ13" s="84"/>
-      <c r="AR13" s="84"/>
+      <c r="W13" s="127"/>
+      <c r="X13" s="85"/>
+      <c r="Y13" s="97"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="101"/>
+      <c r="AB13" s="97"/>
+      <c r="AC13" s="78"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="126"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
+      <c r="AK13" s="21"/>
+      <c r="AL13" s="137"/>
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="138"/>
+      <c r="AO13" s="139"/>
+      <c r="AP13" s="78"/>
+      <c r="AQ13" s="78"/>
+      <c r="AR13" s="78"/>
     </row>
     <row r="14" spans="2:44" ht="19" thickTop="1">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="I14" s="143"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="I14" s="79"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="84"/>
-      <c r="W14" s="86"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="117"/>
-      <c r="AA14" s="103"/>
-      <c r="AB14" s="105"/>
-      <c r="AC14" s="131"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="115"/>
-      <c r="AF14" s="110"/>
-      <c r="AG14" s="85"/>
-      <c r="AH14" s="20"/>
-      <c r="AI14" s="20"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="20"/>
-      <c r="AL14" s="97"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="99"/>
-      <c r="AP14" s="84"/>
-      <c r="AQ14" s="84"/>
-      <c r="AR14" s="84"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="78"/>
+      <c r="W14" s="127"/>
+      <c r="X14" s="85"/>
+      <c r="Y14" s="94"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="114"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="126"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
+      <c r="AK14" s="21"/>
+      <c r="AL14" s="137"/>
+      <c r="AM14" s="138"/>
+      <c r="AN14" s="138"/>
+      <c r="AO14" s="139"/>
+      <c r="AP14" s="78"/>
+      <c r="AQ14" s="78"/>
+      <c r="AR14" s="78"/>
     </row>
     <row r="15" spans="2:44">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="I15" s="143"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="84"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="78"/>
       <c r="U15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W15" s="86"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="121"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="131"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="115"/>
-      <c r="AF15" s="110"/>
-      <c r="AG15" s="85"/>
-      <c r="AH15" s="20"/>
-      <c r="AI15" s="20"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="20"/>
-      <c r="AL15" s="97"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="99"/>
-      <c r="AP15" s="84"/>
-      <c r="AQ15" s="84"/>
-      <c r="AR15" s="84"/>
+      <c r="W15" s="127"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="78"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="87"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="126"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
+      <c r="AK15" s="21"/>
+      <c r="AL15" s="137"/>
+      <c r="AM15" s="138"/>
+      <c r="AN15" s="138"/>
+      <c r="AO15" s="139"/>
+      <c r="AP15" s="78"/>
+      <c r="AQ15" s="78"/>
+      <c r="AR15" s="78"/>
     </row>
     <row r="16" spans="2:44" ht="19" thickBot="1">
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="I16" s="143"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="I16" s="79"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
       <c r="P16" s="19"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="84"/>
-      <c r="W16" s="86"/>
-      <c r="X16" s="141"/>
-      <c r="Y16" s="121"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="131"/>
-      <c r="AD16" s="123"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="110"/>
-      <c r="AG16" s="85"/>
-      <c r="AH16" s="20"/>
-      <c r="AI16" s="20"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="20"/>
-      <c r="AL16" s="97"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="99"/>
-      <c r="AP16" s="84"/>
-      <c r="AQ16" s="84"/>
-      <c r="AR16" s="84"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="78"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="90"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="91"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="108"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="88"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="126"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="137"/>
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="138"/>
+      <c r="AO16" s="139"/>
+      <c r="AP16" s="78"/>
+      <c r="AQ16" s="78"/>
+      <c r="AR16" s="78"/>
     </row>
     <row r="17" spans="1:44" ht="19" thickTop="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="I17" s="84"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="I17" s="78"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="T17" s="84"/>
-      <c r="W17" s="86"/>
-      <c r="X17" s="117"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="84"/>
-      <c r="AD17" s="124" t="s">
+      <c r="T17" s="78"/>
+      <c r="W17" s="127"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="85"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="106"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="20"/>
-      <c r="AI17" s="20"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="20"/>
-      <c r="AL17" s="97"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="99"/>
-      <c r="AP17" s="84"/>
-      <c r="AQ17" s="84"/>
-      <c r="AR17" s="84"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="126"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="137"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="139"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="I18" s="84"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
-      <c r="T18" s="84"/>
+      <c r="T18" s="78"/>
       <c r="U18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W18" s="86"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="121"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="106"/>
-      <c r="AG18" s="85"/>
-      <c r="AH18" s="20"/>
-      <c r="AI18" s="20"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="20"/>
-      <c r="AL18" s="97"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="99"/>
-      <c r="AP18" s="84"/>
-      <c r="AQ18" s="84"/>
-      <c r="AR18" s="84"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="85"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="85"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="78"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="126"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="137"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="139"/>
+      <c r="AP18" s="78"/>
+      <c r="AQ18" s="78"/>
+      <c r="AR18" s="78"/>
     </row>
     <row r="19" spans="1:44" ht="19" thickBot="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="I19" s="84"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="I19" s="78"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="T19" s="84"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="112"/>
-      <c r="AC19" s="112"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="112"/>
-      <c r="AF19" s="106"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="20"/>
-      <c r="AL19" s="97"/>
-      <c r="AM19" s="98"/>
-      <c r="AN19" s="98"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="84"/>
-      <c r="AQ19" s="84"/>
-      <c r="AR19" s="84"/>
+      <c r="T19" s="78"/>
+      <c r="X19" s="91"/>
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="91"/>
+      <c r="AB19" s="97"/>
+      <c r="AC19" s="97"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="97"/>
+      <c r="AF19" s="107"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="137"/>
+      <c r="AM19" s="138"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="139"/>
+      <c r="AP19" s="78"/>
+      <c r="AQ19" s="78"/>
+      <c r="AR19" s="78"/>
     </row>
     <row r="20" spans="1:44" ht="19" thickTop="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="I20" s="84" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="I20" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
-      <c r="T20" s="84" t="s">
+      <c r="T20" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="111"/>
-      <c r="AB20" s="127" t="s">
+      <c r="X20" s="84"/>
+      <c r="Y20" s="92"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="103"/>
+      <c r="AB20" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="AC20" s="117"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="106"/>
-      <c r="AH20" s="20"/>
-      <c r="AI20" s="20"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="97"/>
-      <c r="AM20" s="98"/>
-      <c r="AN20" s="98"/>
-      <c r="AO20" s="99"/>
-      <c r="AP20" s="84"/>
-      <c r="AQ20" s="84"/>
-      <c r="AR20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="114"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="107"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="137"/>
+      <c r="AM20" s="138"/>
+      <c r="AN20" s="138"/>
+      <c r="AO20" s="139"/>
+      <c r="AP20" s="78"/>
+      <c r="AQ20" s="78"/>
+      <c r="AR20" s="78"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="I21" s="84"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="T21" s="84"/>
+      <c r="T21" s="78"/>
       <c r="U21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="84"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="84"/>
-      <c r="AE21" s="84"/>
-      <c r="AF21" s="106"/>
-      <c r="AH21" s="20"/>
-      <c r="AI21" s="20"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="20"/>
-      <c r="AL21" s="97"/>
-      <c r="AM21" s="98"/>
-      <c r="AN21" s="98"/>
-      <c r="AO21" s="99"/>
-      <c r="AP21" s="84"/>
-      <c r="AQ21" s="84"/>
-      <c r="AR21" s="84"/>
+      <c r="X21" s="85"/>
+      <c r="Y21" s="92"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="78"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="107"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="137"/>
+      <c r="AM21" s="138"/>
+      <c r="AN21" s="138"/>
+      <c r="AO21" s="139"/>
+      <c r="AP21" s="78"/>
+      <c r="AQ21" s="78"/>
+      <c r="AR21" s="78"/>
     </row>
     <row r="22" spans="1:44" ht="19" thickBot="1">
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="I22" s="84"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="I22" s="78"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
-      <c r="T22" s="84"/>
-      <c r="X22" s="119"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="119"/>
+      <c r="T22" s="78"/>
+      <c r="X22" s="91"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="91"/>
       <c r="AA22" s="104"/>
-      <c r="AB22" s="133"/>
-      <c r="AC22" s="119"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="91"/>
       <c r="AD22" s="104"/>
       <c r="AE22" s="104"/>
-      <c r="AF22" s="107"/>
-      <c r="AH22" s="20"/>
-      <c r="AI22" s="20"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="20"/>
-      <c r="AL22" s="100"/>
-      <c r="AM22" s="101"/>
-      <c r="AN22" s="101"/>
-      <c r="AO22" s="102"/>
-      <c r="AP22" s="84"/>
-      <c r="AQ22" s="84"/>
-      <c r="AR22" s="84"/>
+      <c r="AF22" s="108"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
+      <c r="AK22" s="21"/>
+      <c r="AL22" s="140"/>
+      <c r="AM22" s="141"/>
+      <c r="AN22" s="141"/>
+      <c r="AO22" s="142"/>
+      <c r="AP22" s="78"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="78"/>
     </row>
     <row r="23" spans="1:44" ht="29" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:44" ht="29" customHeight="1">
@@ -5870,419 +5874,467 @@
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="17"/>
-      <c r="H25" s="84" t="s">
+      <c r="H25" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="Q25" s="84" t="s">
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="Q25" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="T25" s="84" t="s">
+      <c r="T25" s="78" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="17"/>
       <c r="G26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="Q26" s="84"/>
+      <c r="H26" s="78"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="Q26" s="78"/>
       <c r="R26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T26" s="84"/>
+      <c r="T26" s="78"/>
       <c r="U26" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="18"/>
-      <c r="H27" s="84"/>
-      <c r="L27" s="20" t="s">
+      <c r="H27" s="78"/>
+      <c r="L27" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="Q27" s="84"/>
-      <c r="T27" s="84"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="Q27" s="78"/>
+      <c r="T27" s="78"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="18"/>
-      <c r="H28" s="84"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="Q28" s="84"/>
-      <c r="T28" s="143"/>
+      <c r="H28" s="78"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="Q28" s="78"/>
+      <c r="T28" s="79"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="18"/>
       <c r="G29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="84"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="Q29" s="84"/>
+      <c r="H29" s="78"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="Q29" s="78"/>
       <c r="R29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T29" s="143"/>
+      <c r="T29" s="79"/>
       <c r="U29" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="18"/>
-      <c r="H30" s="84"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="Q30" s="84"/>
-      <c r="T30" s="143"/>
+      <c r="H30" s="78"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="Q30" s="78"/>
+      <c r="T30" s="79"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="18"/>
-      <c r="H31" s="84"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="Q31" s="143"/>
-      <c r="T31" s="84"/>
+      <c r="H31" s="78"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="Q31" s="79"/>
+      <c r="T31" s="78"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="18"/>
       <c r="G32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="Q32" s="143"/>
+      <c r="H32" s="78"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="Q32" s="79"/>
       <c r="R32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="84"/>
+      <c r="T32" s="78"/>
       <c r="U32" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="18"/>
-      <c r="H33" s="84"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="Q33" s="143"/>
-      <c r="T33" s="84"/>
+      <c r="H33" s="78"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="Q33" s="79"/>
+      <c r="T33" s="78"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="17"/>
-      <c r="H34" s="84"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="Q34" s="84"/>
-      <c r="T34" s="84"/>
+      <c r="H34" s="78"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="Q34" s="78"/>
+      <c r="T34" s="78"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="17"/>
       <c r="G35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="Q35" s="84"/>
+      <c r="H35" s="78"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="Q35" s="78"/>
       <c r="R35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T35" s="84"/>
+      <c r="T35" s="78"/>
       <c r="U35" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="19"/>
-      <c r="H36" s="84"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="Q36" s="84"/>
-      <c r="T36" s="84"/>
+      <c r="H36" s="78"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="Q36" s="78"/>
+      <c r="T36" s="78"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="Q37" s="84" t="s">
+      <c r="F37" s="78"/>
+      <c r="G37" s="78"/>
+      <c r="H37" s="78"/>
+      <c r="I37" s="78"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="Q37" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="143"/>
+      <c r="T37" s="79"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="Q38" s="84"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="Q38" s="78"/>
       <c r="R38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="T38" s="143"/>
+      <c r="T38" s="79"/>
       <c r="U38" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="Q39" s="84"/>
-      <c r="T39" s="143"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="Q39" s="78"/>
+      <c r="T39" s="79"/>
     </row>
     <row r="40" spans="1:21">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="I40" s="143"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="T40" s="84"/>
+      <c r="I40" s="79"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="T40" s="78"/>
     </row>
     <row r="41" spans="1:21">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="I41" s="143"/>
+      <c r="I41" s="79"/>
       <c r="J41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="T41" s="84"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="T41" s="78"/>
       <c r="U41" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="I42" s="143"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="T42" s="84"/>
+      <c r="I42" s="79"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="T42" s="78"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="I43" s="84" t="s">
+      <c r="I43" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="T43" s="84" t="s">
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="T43" s="78" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="I44" s="84"/>
+      <c r="I44" s="78"/>
       <c r="J44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="T44" s="84"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="T44" s="78"/>
       <c r="U44" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="I45" s="84"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="T45" s="84"/>
+      <c r="I45" s="78"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="T45" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="T40:T42"/>
-    <mergeCell ref="T43:T45"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="T31:T33"/>
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="L25:O26"/>
-    <mergeCell ref="L27:O45"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="Q31:Q33"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q37:Q39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="A27:D45"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="AP2:AR3"/>
+    <mergeCell ref="AP4:AR22"/>
+    <mergeCell ref="AG4:AG18"/>
+    <mergeCell ref="W4:W18"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="AH4:AK22"/>
+    <mergeCell ref="AL2:AO3"/>
+    <mergeCell ref="AL4:AO22"/>
+    <mergeCell ref="AE20:AE22"/>
+    <mergeCell ref="AF2:AF4"/>
+    <mergeCell ref="AF5:AF7"/>
+    <mergeCell ref="AF8:AF10"/>
+    <mergeCell ref="AF11:AF13"/>
+    <mergeCell ref="AF14:AF16"/>
+    <mergeCell ref="AF17:AF19"/>
+    <mergeCell ref="AF20:AF22"/>
+    <mergeCell ref="AE17:AE19"/>
+    <mergeCell ref="AC20:AC22"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AD11:AD13"/>
+    <mergeCell ref="AD14:AD16"/>
+    <mergeCell ref="AD17:AD19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AE14:AE16"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AB14:AB16"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AB20:AB22"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AA14:AA16"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="T14:T16"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="B4:G10"/>
     <mergeCell ref="B11:G12"/>
@@ -6304,80 +6356,32 @@
     <mergeCell ref="I14:I16"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="I20:I22"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AA14:AA16"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="AE17:AE19"/>
-    <mergeCell ref="AC20:AC22"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AD5:AD7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AD11:AD13"/>
-    <mergeCell ref="AD14:AD16"/>
-    <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AP2:AR3"/>
-    <mergeCell ref="AP4:AR22"/>
-    <mergeCell ref="AG4:AG18"/>
-    <mergeCell ref="W4:W18"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="AH4:AK22"/>
-    <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="AL4:AO22"/>
-    <mergeCell ref="AE20:AE22"/>
-    <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AF5:AF7"/>
-    <mergeCell ref="AF8:AF10"/>
-    <mergeCell ref="AF11:AF13"/>
-    <mergeCell ref="AF14:AF16"/>
-    <mergeCell ref="AF17:AF19"/>
-    <mergeCell ref="AF20:AF22"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A27:D45"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="T40:T42"/>
+    <mergeCell ref="T43:T45"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="L25:O26"/>
+    <mergeCell ref="L27:O45"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q37:Q39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6412,80 +6416,80 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" customHeight="1"/>
     <row r="2" spans="2:13" ht="18" customHeight="1">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="I2" s="87" t="s">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="I2" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1">
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="146" t="s">
@@ -6851,6 +6855,472 @@
     <mergeCell ref="I8:M36"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"Calibri,Regular"&amp;K000000&amp;G&amp;R&amp;"Calibri,Regular"&amp;K000000&amp;G</oddHeader>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="18" customHeight="1"/>
+    <row r="2" spans="2:13" ht="18" customHeight="1">
+      <c r="B2" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="I2" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="80"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+    </row>
+    <row r="7" spans="2:13" ht="18" customHeight="1">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+    </row>
+    <row r="8" spans="2:13" ht="18" customHeight="1">
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="146"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="146"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="146"/>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="146"/>
+      <c r="I10" s="146"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
+      <c r="M10" s="146"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="146"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="146"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="146"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="146"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="146"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="146"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="146"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="146"/>
+    </row>
+    <row r="23" spans="1:13" ht="29" customHeight="1">
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="146"/>
+    </row>
+    <row r="24" spans="1:13" ht="29" customHeight="1">
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="146"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="146"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="146"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="B27" s="146"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="146"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="146"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="146"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="146"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+    </row>
+    <row r="33" spans="2:13">
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+    </row>
+    <row r="34" spans="2:13">
+      <c r="B34" s="146"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="146"/>
+    </row>
+    <row r="35" spans="2:13">
+      <c r="B35" s="146"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="146"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+    </row>
+    <row r="36" spans="2:13">
+      <c r="B36" s="146"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F7"/>
+    <mergeCell ref="I2:M7"/>
+    <mergeCell ref="B8:F36"/>
+    <mergeCell ref="I8:M36"/>
+  </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6952,331 +7422,362 @@
       <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="22" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="24"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="I6:K8"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="A27:K28"/>
+    <mergeCell ref="A9:D10"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A13:D14"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="E9:F10"/>
+    <mergeCell ref="G9:H10"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
     <mergeCell ref="I21:K22"/>
     <mergeCell ref="I23:K24"/>
     <mergeCell ref="I25:K26"/>
@@ -7293,37 +7794,6 @@
     <mergeCell ref="E23:F24"/>
     <mergeCell ref="G23:H24"/>
     <mergeCell ref="E25:F26"/>
-    <mergeCell ref="A27:K28"/>
-    <mergeCell ref="A9:D10"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A13:D14"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="A17:D18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="G17:H18"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="E9:F10"/>
-    <mergeCell ref="G9:H10"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="I6:K8"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="E17:F18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7355,82 +7825,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="29" t="s">
@@ -7570,82 +8040,82 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="29" t="s">
@@ -7774,12 +8244,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A34:B38"/>
-    <mergeCell ref="C34:E38"/>
-    <mergeCell ref="F34:G38"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A10:G23"/>
     <mergeCell ref="A1:G2"/>
@@ -7789,6 +8253,12 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A24:G25"/>
     <mergeCell ref="A26:G29"/>
+    <mergeCell ref="A34:B38"/>
+    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="F34:G38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7821,140 +8291,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="29"/>
@@ -8021,40 +8491,40 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="29"/>
@@ -15840,24 +16310,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="54" t="s">
@@ -16074,69 +16544,69 @@
       <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>

--- a/assets/WhatIsComputerSheets.xlsx
+++ b/assets/WhatIsComputerSheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="26680" windowHeight="13620" tabRatio="500" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="147">
   <si>
     <t>What Is A Computer?</t>
   </si>
@@ -1328,7 +1328,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="293">
+  <cellStyleXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1622,8 +1622,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1676,20 +1686,20 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1698,10 +1708,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1850,132 +1860,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1994,11 +1878,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2045,6 +1935,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2054,11 +1959,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="293">
+  <cellStyles count="303">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2205,6 +2218,11 @@
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2351,6 +2369,11 @@
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2741,366 +2764,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="A30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
+      <c r="A32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
@@ -3158,16 +3181,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A3:G6"/>
+    <mergeCell ref="A7:G8"/>
+    <mergeCell ref="A9:G12"/>
+    <mergeCell ref="A13:G14"/>
     <mergeCell ref="A15:G19"/>
     <mergeCell ref="A30:G31"/>
     <mergeCell ref="A20:G24"/>
     <mergeCell ref="A25:G29"/>
     <mergeCell ref="A32:G38"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A3:G6"/>
-    <mergeCell ref="A7:G8"/>
-    <mergeCell ref="A9:G12"/>
-    <mergeCell ref="A13:G14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4686,250 +4709,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
@@ -4978,8 +5001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8:Y10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4996,1271 +5019,1560 @@
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="I2" s="78" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="I2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="99" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="105" t="s">
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="AC2" s="109" t="s">
+      <c r="AC2" s="125" t="s">
         <v>129</v>
       </c>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="106"/>
-      <c r="AH2" s="80" t="s">
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="105"/>
+      <c r="AH2" s="87" t="s">
         <v>139</v>
       </c>
-      <c r="AI2" s="80"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="80"/>
-      <c r="AL2" s="128" t="s">
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="87"/>
+      <c r="AL2" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="120" t="s">
+      <c r="AM2" s="89"/>
+      <c r="AN2" s="89"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="78" t="s">
         <v>141</v>
       </c>
-      <c r="AQ2" s="121"/>
-      <c r="AR2" s="122"/>
+      <c r="AQ2" s="79"/>
+      <c r="AR2" s="80"/>
     </row>
     <row r="3" spans="2:44">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="I3" s="78"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
-      <c r="N3" s="80"/>
-      <c r="O3" s="80"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="78"/>
+      <c r="Q3" s="84"/>
       <c r="R3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="100"/>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="110"/>
-      <c r="AD3" s="112"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="107"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="80"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="132"/>
-      <c r="AN3" s="132"/>
-      <c r="AO3" s="133"/>
-      <c r="AP3" s="123"/>
-      <c r="AQ3" s="124"/>
-      <c r="AR3" s="125"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="123"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="106"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="87"/>
+      <c r="AJ3" s="87"/>
+      <c r="AK3" s="87"/>
+      <c r="AL3" s="91"/>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="93"/>
+      <c r="AP3" s="81"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="83"/>
     </row>
     <row r="4" spans="2:44" ht="19" thickBot="1">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="142" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="I4" s="78"/>
-      <c r="L4" s="21" t="s">
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="I4" s="84"/>
+      <c r="L4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4" s="18"/>
-      <c r="Q4" s="78"/>
-      <c r="W4" s="127" t="s">
+      <c r="Q4" s="84"/>
+      <c r="W4" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="101"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="112"/>
+      <c r="X4" s="114"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="117"/>
       <c r="AE4" s="104"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="126" t="s">
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" s="21"/>
-      <c r="AI4" s="21"/>
-      <c r="AJ4" s="21"/>
-      <c r="AK4" s="21"/>
-      <c r="AL4" s="134"/>
-      <c r="AM4" s="135"/>
-      <c r="AN4" s="135"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="78"/>
-      <c r="AQ4" s="78"/>
-      <c r="AR4" s="78"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="84"/>
+      <c r="AQ4" s="84"/>
+      <c r="AR4" s="84"/>
     </row>
     <row r="5" spans="2:44" ht="19" thickTop="1">
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="I5" s="78"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="142"/>
+      <c r="E5" s="142"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="142"/>
+      <c r="I5" s="84"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
       <c r="P5" s="18"/>
-      <c r="Q5" s="78"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="102"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="143"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
-      <c r="AJ5" s="21"/>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="137"/>
-      <c r="AM5" s="138"/>
-      <c r="AN5" s="138"/>
-      <c r="AO5" s="139"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
+      <c r="Q5" s="84"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="139"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="114"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="105"/>
+      <c r="AC5" s="128"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="20"/>
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="98"/>
+      <c r="AN5" s="98"/>
+      <c r="AO5" s="99"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="84"/>
     </row>
     <row r="6" spans="2:44">
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="I6" s="78"/>
+      <c r="B6" s="142"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
       <c r="P6" s="18"/>
-      <c r="Q6" s="78"/>
+      <c r="Q6" s="84"/>
       <c r="R6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="127"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="96"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="107"/>
-      <c r="AC6" s="112"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="107"/>
-      <c r="AG6" s="126"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="137"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="139"/>
-      <c r="AP6" s="78"/>
-      <c r="AQ6" s="78"/>
-      <c r="AR6" s="78"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="130"/>
+      <c r="Z6" s="114"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="97"/>
+      <c r="AM6" s="98"/>
+      <c r="AN6" s="98"/>
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="84"/>
+      <c r="AR6" s="84"/>
     </row>
     <row r="7" spans="2:44" ht="18" customHeight="1" thickBot="1">
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="I7" s="78"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="I7" s="84"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
       <c r="P7" s="18"/>
-      <c r="Q7" s="78"/>
-      <c r="W7" s="127"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="112"/>
-      <c r="AD7" s="97"/>
-      <c r="AE7" s="97"/>
-      <c r="AF7" s="144"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="21"/>
-      <c r="AI7" s="21"/>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="137"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="139"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
+      <c r="Q7" s="84"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="130"/>
+      <c r="Z7" s="115"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="117"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="109"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="20"/>
+      <c r="AK7" s="20"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="99"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
     </row>
     <row r="8" spans="2:44" ht="18" customHeight="1" thickTop="1">
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="I8" s="78"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="I8" s="84"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="18"/>
-      <c r="Q8" s="78"/>
-      <c r="W8" s="127"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="96"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="103"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="106"/>
-      <c r="AG8" s="126"/>
-      <c r="AH8" s="21"/>
-      <c r="AI8" s="21"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="137"/>
-      <c r="AM8" s="138"/>
-      <c r="AN8" s="138"/>
-      <c r="AO8" s="139"/>
-      <c r="AP8" s="78"/>
-      <c r="AQ8" s="78"/>
-      <c r="AR8" s="78"/>
+      <c r="Q8" s="84"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="130"/>
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="97"/>
+      <c r="AM8" s="98"/>
+      <c r="AN8" s="98"/>
+      <c r="AO8" s="99"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
     </row>
     <row r="9" spans="2:44">
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="I9" s="78"/>
+      <c r="B9" s="142"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="78"/>
+      <c r="Q9" s="84"/>
       <c r="R9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W9" s="127"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="78"/>
-      <c r="AC9" s="78"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="126"/>
-      <c r="AH9" s="21"/>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="137"/>
-      <c r="AM9" s="138"/>
-      <c r="AN9" s="138"/>
-      <c r="AO9" s="139"/>
-      <c r="AP9" s="78"/>
-      <c r="AQ9" s="78"/>
-      <c r="AR9" s="78"/>
+      <c r="W9" s="86"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="130"/>
+      <c r="AA9" s="117"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="106"/>
+      <c r="AG9" s="85"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="97"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="99"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
     </row>
     <row r="10" spans="2:44" ht="19" thickBot="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="I10" s="78"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="I10" s="84"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="18"/>
-      <c r="Q10" s="78"/>
-      <c r="W10" s="127"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="113"/>
+      <c r="Q10" s="84"/>
+      <c r="W10" s="86"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="130"/>
+      <c r="Z10" s="130"/>
+      <c r="AA10" s="134"/>
       <c r="AB10" s="104"/>
-      <c r="AC10" s="78"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="112"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="126"/>
-      <c r="AH10" s="21"/>
-      <c r="AI10" s="21"/>
-      <c r="AJ10" s="21"/>
-      <c r="AK10" s="21"/>
-      <c r="AL10" s="137"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="139"/>
-      <c r="AP10" s="78"/>
-      <c r="AQ10" s="78"/>
-      <c r="AR10" s="78"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="97"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="99"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
     </row>
     <row r="11" spans="2:44" ht="19" thickTop="1">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="I11" s="78"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="I11" s="84"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="17"/>
-      <c r="Q11" s="78"/>
-      <c r="W11" s="127"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="99" t="s">
+      <c r="Q11" s="84"/>
+      <c r="W11" s="86"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="AB11" s="103"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="126"/>
-      <c r="AH11" s="21"/>
-      <c r="AI11" s="21"/>
-      <c r="AJ11" s="21"/>
-      <c r="AK11" s="21"/>
-      <c r="AL11" s="137"/>
-      <c r="AM11" s="138"/>
-      <c r="AN11" s="138"/>
-      <c r="AO11" s="139"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="78"/>
-      <c r="AR11" s="78"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="118"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="85"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="97"/>
+      <c r="AM11" s="98"/>
+      <c r="AN11" s="98"/>
+      <c r="AO11" s="99"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
     </row>
     <row r="12" spans="2:44">
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="I12" s="78"/>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="17"/>
-      <c r="Q12" s="78"/>
+      <c r="Q12" s="84"/>
       <c r="R12" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="127"/>
-      <c r="X12" s="85"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="100"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
-      <c r="AD12" s="92"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="126"/>
-      <c r="AH12" s="21"/>
-      <c r="AI12" s="21"/>
-      <c r="AJ12" s="21"/>
-      <c r="AK12" s="21"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="138"/>
-      <c r="AN12" s="138"/>
-      <c r="AO12" s="139"/>
-      <c r="AP12" s="78"/>
-      <c r="AQ12" s="78"/>
-      <c r="AR12" s="78"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="114"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="123"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="119"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="85"/>
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+      <c r="AJ12" s="20"/>
+      <c r="AK12" s="20"/>
+      <c r="AL12" s="97"/>
+      <c r="AM12" s="98"/>
+      <c r="AN12" s="98"/>
+      <c r="AO12" s="99"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
     </row>
     <row r="13" spans="2:44" ht="19" thickBot="1">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="I13" s="78"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="I13" s="84"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="19"/>
-      <c r="Q13" s="78"/>
+      <c r="Q13" s="84"/>
       <c r="S13" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="W13" s="127"/>
-      <c r="X13" s="85"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="101"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="78"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="126"/>
-      <c r="AH13" s="21"/>
-      <c r="AI13" s="21"/>
-      <c r="AJ13" s="21"/>
-      <c r="AK13" s="21"/>
-      <c r="AL13" s="137"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="138"/>
-      <c r="AO13" s="139"/>
-      <c r="AP13" s="78"/>
-      <c r="AQ13" s="78"/>
-      <c r="AR13" s="78"/>
+      <c r="W13" s="86"/>
+      <c r="X13" s="114"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="130"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="85"/>
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+      <c r="AJ13" s="20"/>
+      <c r="AK13" s="20"/>
+      <c r="AL13" s="97"/>
+      <c r="AM13" s="98"/>
+      <c r="AN13" s="98"/>
+      <c r="AO13" s="99"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
     </row>
     <row r="14" spans="2:44" ht="19" thickTop="1">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="I14" s="79"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="I14" s="144"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="19"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="78"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="85"/>
-      <c r="Y14" s="94"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="126"/>
-      <c r="AH14" s="21"/>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="137"/>
-      <c r="AM14" s="138"/>
-      <c r="AN14" s="138"/>
-      <c r="AO14" s="139"/>
-      <c r="AP14" s="78"/>
-      <c r="AQ14" s="78"/>
-      <c r="AR14" s="78"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="84"/>
+      <c r="W14" s="86"/>
+      <c r="X14" s="114"/>
+      <c r="Y14" s="136"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="103"/>
+      <c r="AB14" s="105"/>
+      <c r="AC14" s="129"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="130"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="85"/>
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+      <c r="AJ14" s="20"/>
+      <c r="AK14" s="20"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="98"/>
+      <c r="AN14" s="98"/>
+      <c r="AO14" s="99"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
     </row>
     <row r="15" spans="2:44">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="19"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="78"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="144"/>
+      <c r="T15" s="84"/>
       <c r="U15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W15" s="127"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="92"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="107"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="126"/>
-      <c r="AH15" s="21"/>
-      <c r="AI15" s="21"/>
-      <c r="AJ15" s="21"/>
-      <c r="AK15" s="21"/>
-      <c r="AL15" s="137"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="78"/>
-      <c r="AQ15" s="78"/>
-      <c r="AR15" s="78"/>
+      <c r="W15" s="86"/>
+      <c r="X15" s="114"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="114"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="129"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="130"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+      <c r="AJ15" s="20"/>
+      <c r="AK15" s="20"/>
+      <c r="AL15" s="97"/>
+      <c r="AM15" s="98"/>
+      <c r="AN15" s="98"/>
+      <c r="AO15" s="99"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
     </row>
     <row r="16" spans="2:44" ht="19" thickBot="1">
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="I16" s="79"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="I16" s="144"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="19"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="78"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="90"/>
-      <c r="Y16" s="92"/>
-      <c r="Z16" s="91"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="108"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="88"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="126"/>
-      <c r="AH16" s="21"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="137"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="138"/>
-      <c r="AO16" s="139"/>
-      <c r="AP16" s="78"/>
-      <c r="AQ16" s="78"/>
-      <c r="AR16" s="78"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="84"/>
+      <c r="W16" s="86"/>
+      <c r="X16" s="141"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="107"/>
+      <c r="AC16" s="129"/>
+      <c r="AD16" s="121"/>
+      <c r="AE16" s="131"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="85"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AJ16" s="20"/>
+      <c r="AK16" s="20"/>
+      <c r="AL16" s="97"/>
+      <c r="AM16" s="98"/>
+      <c r="AN16" s="98"/>
+      <c r="AO16" s="99"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
     </row>
     <row r="17" spans="1:44" ht="19" thickTop="1">
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="I17" s="78"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="I17" s="84"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="19"/>
       <c r="Q17" s="19"/>
       <c r="R17" s="19"/>
-      <c r="T17" s="78"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="103"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="99" t="s">
+      <c r="T17" s="84"/>
+      <c r="W17" s="86"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="114"/>
+      <c r="AB17" s="111"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="122" t="s">
         <v>129</v>
       </c>
-      <c r="AE17" s="103"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="126"/>
-      <c r="AH17" s="21"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="137"/>
-      <c r="AM17" s="138"/>
-      <c r="AN17" s="138"/>
-      <c r="AO17" s="139"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="20"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="97"/>
+      <c r="AM17" s="98"/>
+      <c r="AN17" s="98"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="I18" s="78"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="I18" s="84"/>
       <c r="J18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="19"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
-      <c r="T18" s="78"/>
+      <c r="T18" s="84"/>
       <c r="U18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="W18" s="127"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="78"/>
-      <c r="Z18" s="92"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="78"/>
-      <c r="AC18" s="78"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="78"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="126"/>
-      <c r="AH18" s="21"/>
-      <c r="AI18" s="21"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="21"/>
-      <c r="AL18" s="137"/>
-      <c r="AM18" s="138"/>
-      <c r="AN18" s="138"/>
-      <c r="AO18" s="139"/>
-      <c r="AP18" s="78"/>
-      <c r="AQ18" s="78"/>
-      <c r="AR18" s="78"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="114"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="114"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="123"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="85"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="20"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="97"/>
+      <c r="AM18" s="98"/>
+      <c r="AN18" s="98"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
     </row>
     <row r="19" spans="1:44" ht="19" thickBot="1">
-      <c r="B19" s="83"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="I19" s="78"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="I19" s="84"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="19"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="19"/>
-      <c r="T19" s="78"/>
-      <c r="X19" s="91"/>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="101"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="107"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="21"/>
-      <c r="AL19" s="137"/>
-      <c r="AM19" s="138"/>
-      <c r="AN19" s="138"/>
-      <c r="AO19" s="139"/>
-      <c r="AP19" s="78"/>
-      <c r="AQ19" s="78"/>
-      <c r="AR19" s="78"/>
+      <c r="T19" s="84"/>
+      <c r="X19" s="115"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="115"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="106"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="97"/>
+      <c r="AM19" s="98"/>
+      <c r="AN19" s="98"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
     </row>
     <row r="20" spans="1:44" ht="19" thickTop="1">
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="I20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="19"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="19"/>
-      <c r="T20" s="78" t="s">
+      <c r="T20" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="109" t="s">
+      <c r="X20" s="113"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="114"/>
+      <c r="AA20" s="111"/>
+      <c r="AB20" s="125" t="s">
         <v>132</v>
       </c>
-      <c r="AC20" s="84"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="107"/>
-      <c r="AH20" s="21"/>
-      <c r="AI20" s="21"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="21"/>
-      <c r="AL20" s="137"/>
-      <c r="AM20" s="138"/>
-      <c r="AN20" s="138"/>
-      <c r="AO20" s="139"/>
-      <c r="AP20" s="78"/>
-      <c r="AQ20" s="78"/>
-      <c r="AR20" s="78"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="106"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="20"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="97"/>
+      <c r="AM20" s="98"/>
+      <c r="AN20" s="98"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="B21" s="83"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="I21" s="78"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="19"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="19"/>
-      <c r="T21" s="78"/>
+      <c r="T21" s="84"/>
       <c r="U21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="X21" s="85"/>
-      <c r="Y21" s="92"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="78"/>
-      <c r="AB21" s="110"/>
-      <c r="AC21" s="85"/>
-      <c r="AD21" s="78"/>
-      <c r="AE21" s="78"/>
-      <c r="AF21" s="107"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="21"/>
-      <c r="AJ21" s="21"/>
-      <c r="AK21" s="21"/>
-      <c r="AL21" s="137"/>
-      <c r="AM21" s="138"/>
-      <c r="AN21" s="138"/>
-      <c r="AO21" s="139"/>
-      <c r="AP21" s="78"/>
-      <c r="AQ21" s="78"/>
-      <c r="AR21" s="78"/>
+      <c r="X21" s="114"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="114"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="126"/>
+      <c r="AC21" s="114"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="106"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="97"/>
+      <c r="AM21" s="98"/>
+      <c r="AN21" s="98"/>
+      <c r="AO21" s="99"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
     </row>
     <row r="22" spans="1:44" ht="19" thickBot="1">
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="I22" s="78"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="I22" s="84"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="19"/>
       <c r="R22" s="19"/>
-      <c r="T22" s="78"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="91"/>
+      <c r="T22" s="84"/>
+      <c r="X22" s="115"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="115"/>
       <c r="AA22" s="104"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="91"/>
+      <c r="AB22" s="133"/>
+      <c r="AC22" s="115"/>
       <c r="AD22" s="104"/>
       <c r="AE22" s="104"/>
-      <c r="AF22" s="108"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="21"/>
-      <c r="AJ22" s="21"/>
-      <c r="AK22" s="21"/>
-      <c r="AL22" s="140"/>
-      <c r="AM22" s="141"/>
-      <c r="AN22" s="141"/>
-      <c r="AO22" s="142"/>
-      <c r="AP22" s="78"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="78"/>
+      <c r="AF22" s="107"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="20"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="100"/>
+      <c r="AM22" s="101"/>
+      <c r="AN22" s="101"/>
+      <c r="AO22" s="102"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
     </row>
     <row r="23" spans="1:44" ht="29" customHeight="1" thickTop="1"/>
     <row r="24" spans="1:44" ht="29" customHeight="1">
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="80" t="s">
+      <c r="A25" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="17"/>
-      <c r="H25" s="78" t="s">
+      <c r="H25" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="L25" s="80" t="s">
+      <c r="L25" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="Q25" s="78" t="s">
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="Q25" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="T25" s="78" t="s">
+      <c r="T25" s="84" t="s">
         <v>75</v>
       </c>
+      <c r="W25" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="17"/>
+      <c r="AD25" s="84" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="17"/>
       <c r="G26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H26" s="78"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="Q26" s="78"/>
+      <c r="H26" s="84"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="Q26" s="84"/>
       <c r="R26" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="T26" s="78"/>
+      <c r="T26" s="84"/>
       <c r="U26" s="1" t="s">
         <v>131</v>
       </c>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="17"/>
+      <c r="AC26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD26" s="84"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="18"/>
-      <c r="H27" s="78"/>
-      <c r="L27" s="21" t="s">
+      <c r="H27" s="84"/>
+      <c r="L27" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="Q27" s="78"/>
-      <c r="T27" s="78"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="Q27" s="84"/>
+      <c r="T27" s="84"/>
+      <c r="W27" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="18"/>
+      <c r="AD27" s="84"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="18"/>
-      <c r="H28" s="78"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="Q28" s="78"/>
-      <c r="T28" s="79"/>
+      <c r="H28" s="84"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="Q28" s="84"/>
+      <c r="T28" s="144"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="18"/>
+      <c r="AD28" s="84"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="18"/>
       <c r="G29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="78"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="Q29" s="78"/>
+      <c r="H29" s="84"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="Q29" s="84"/>
       <c r="R29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T29" s="79"/>
+      <c r="T29" s="144"/>
       <c r="U29" s="1" t="s">
         <v>129</v>
       </c>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="18"/>
+      <c r="AC29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD29" s="84"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="18"/>
-      <c r="H30" s="78"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="Q30" s="78"/>
-      <c r="T30" s="79"/>
+      <c r="H30" s="84"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="Q30" s="84"/>
+      <c r="T30" s="144"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="18"/>
+      <c r="AD30" s="84"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="18"/>
-      <c r="H31" s="78"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="Q31" s="79"/>
-      <c r="T31" s="78"/>
+      <c r="H31" s="84"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="Q31" s="144"/>
+      <c r="T31" s="84"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="18"/>
       <c r="G32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H32" s="78"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="Q32" s="79"/>
+      <c r="H32" s="84"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="Q32" s="144"/>
       <c r="R32" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="T32" s="78"/>
+      <c r="T32" s="84"/>
       <c r="U32" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="147"/>
+      <c r="AC32" s="147"/>
+      <c r="AD32" s="147"/>
+      <c r="AE32" s="147"/>
+      <c r="AF32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
       <c r="E33" s="18"/>
-      <c r="H33" s="78"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="Q33" s="79"/>
-      <c r="T33" s="78"/>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
+      <c r="H33" s="84"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="Q33" s="144"/>
+      <c r="T33" s="84"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
       <c r="E34" s="17"/>
-      <c r="H34" s="78"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="Q34" s="78"/>
-      <c r="T34" s="78"/>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
+      <c r="H34" s="84"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="Q34" s="84"/>
+      <c r="T34" s="84"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AE34" s="144"/>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
       <c r="E35" s="17"/>
       <c r="G35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H35" s="78"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="Q35" s="78"/>
+      <c r="H35" s="84"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="Q35" s="84"/>
       <c r="R35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T35" s="78"/>
+      <c r="T35" s="84"/>
       <c r="U35" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
       <c r="E36" s="19"/>
-      <c r="H36" s="78"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
-      <c r="O36" s="21"/>
-      <c r="Q36" s="78"/>
-      <c r="T36" s="78"/>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
+      <c r="H36" s="84"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="Q36" s="84"/>
+      <c r="T36" s="84"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AE36" s="144"/>
+    </row>
+    <row r="37" spans="1:33">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="Q37" s="78" t="s">
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="Q37" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="T37" s="79"/>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
+      <c r="T37" s="144"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="112"/>
+      <c r="AE37" s="112"/>
+      <c r="AF37" s="112"/>
+    </row>
+    <row r="38" spans="1:33">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
       <c r="E38" s="19"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
       <c r="J38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="Q38" s="78"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="Q38" s="84"/>
       <c r="R38" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="T38" s="79"/>
+      <c r="T38" s="144"/>
       <c r="U38" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="147"/>
+      <c r="AE38" s="147"/>
+      <c r="AF38" s="147"/>
+    </row>
+    <row r="39" spans="1:33">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="Q39" s="78"/>
-      <c r="T39" s="79"/>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="Q39" s="84"/>
+      <c r="T39" s="144"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+    </row>
+    <row r="40" spans="1:33">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
-      <c r="I40" s="79"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="T40" s="78"/>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="I40" s="144"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="T40" s="84"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="19"/>
+      <c r="AF40" s="112"/>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
-      <c r="I41" s="79"/>
+      <c r="I41" s="144"/>
       <c r="J41" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="T41" s="78"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="T41" s="84"/>
       <c r="U41" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="19"/>
+      <c r="AF41" s="147"/>
+    </row>
+    <row r="42" spans="1:33">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
-      <c r="I42" s="79"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="T42" s="78"/>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
+      <c r="I42" s="144"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="T42" s="84"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="19"/>
+      <c r="AF42" s="111"/>
+    </row>
+    <row r="43" spans="1:33">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="T43" s="78" t="s">
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="T43" s="84" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="19"/>
+      <c r="AF43" s="84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
-      <c r="I44" s="78"/>
+      <c r="I44" s="84"/>
       <c r="J44" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="T44" s="78"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="T44" s="84"/>
       <c r="U44" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="19"/>
+      <c r="AF44" s="84"/>
+      <c r="AG44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
-      <c r="I45" s="78"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="T45" s="78"/>
+      <c r="I45" s="84"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="T45" s="84"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="19"/>
+      <c r="AF45" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="135">
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AF43:AF45"/>
+    <mergeCell ref="AB31:AB33"/>
+    <mergeCell ref="AC31:AC33"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AD37:AD39"/>
+    <mergeCell ref="AF37:AF39"/>
+    <mergeCell ref="AF40:AF42"/>
+    <mergeCell ref="AE37:AE39"/>
+    <mergeCell ref="W25:Z26"/>
+    <mergeCell ref="AD25:AD27"/>
+    <mergeCell ref="W27:Z45"/>
+    <mergeCell ref="AD28:AD30"/>
+    <mergeCell ref="AD31:AD33"/>
+    <mergeCell ref="T40:T42"/>
+    <mergeCell ref="T43:T45"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="T28:T30"/>
+    <mergeCell ref="T31:T33"/>
+    <mergeCell ref="T34:T36"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="L25:O26"/>
+    <mergeCell ref="L27:O45"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="Q34:Q36"/>
+    <mergeCell ref="Q37:Q39"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="A27:D45"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="B4:G10"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="B13:D22"/>
+    <mergeCell ref="E13:G22"/>
+    <mergeCell ref="L2:O3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="L4:O22"/>
+    <mergeCell ref="Q5:Q7"/>
+    <mergeCell ref="Q8:Q10"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="T17:T19"/>
+    <mergeCell ref="T20:T22"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="X17:X19"/>
+    <mergeCell ref="X20:X22"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="Y20:Y22"/>
+    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="Z5:Z7"/>
+    <mergeCell ref="Z8:Z10"/>
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="Z17:Z19"/>
+    <mergeCell ref="Z20:Z22"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Y5:Y7"/>
+    <mergeCell ref="Y8:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Y17:Y19"/>
+    <mergeCell ref="AA20:AA22"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AB5:AB7"/>
+    <mergeCell ref="AB8:AB10"/>
+    <mergeCell ref="AB11:AB13"/>
+    <mergeCell ref="AB14:AB16"/>
+    <mergeCell ref="AB17:AB19"/>
+    <mergeCell ref="AB20:AB22"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AA5:AA7"/>
+    <mergeCell ref="AA8:AA10"/>
+    <mergeCell ref="AA11:AA13"/>
+    <mergeCell ref="AA14:AA16"/>
+    <mergeCell ref="AA17:AA19"/>
+    <mergeCell ref="AD20:AD22"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC8:AC10"/>
+    <mergeCell ref="AC11:AC13"/>
+    <mergeCell ref="AC14:AC16"/>
+    <mergeCell ref="AC17:AC19"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="AE5:AE7"/>
+    <mergeCell ref="AE8:AE10"/>
+    <mergeCell ref="AE11:AE13"/>
+    <mergeCell ref="AE14:AE16"/>
     <mergeCell ref="AP2:AR3"/>
     <mergeCell ref="AP4:AR22"/>
     <mergeCell ref="AG4:AG18"/>
@@ -6285,103 +6597,6 @@
     <mergeCell ref="AD11:AD13"/>
     <mergeCell ref="AD14:AD16"/>
     <mergeCell ref="AD17:AD19"/>
-    <mergeCell ref="AD20:AD22"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AC5:AC7"/>
-    <mergeCell ref="AC8:AC10"/>
-    <mergeCell ref="AC11:AC13"/>
-    <mergeCell ref="AC14:AC16"/>
-    <mergeCell ref="AC17:AC19"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="AE5:AE7"/>
-    <mergeCell ref="AE8:AE10"/>
-    <mergeCell ref="AE11:AE13"/>
-    <mergeCell ref="AE14:AE16"/>
-    <mergeCell ref="AA20:AA22"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AB5:AB7"/>
-    <mergeCell ref="AB8:AB10"/>
-    <mergeCell ref="AB11:AB13"/>
-    <mergeCell ref="AB14:AB16"/>
-    <mergeCell ref="AB17:AB19"/>
-    <mergeCell ref="AB20:AB22"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AA5:AA7"/>
-    <mergeCell ref="AA8:AA10"/>
-    <mergeCell ref="AA11:AA13"/>
-    <mergeCell ref="AA14:AA16"/>
-    <mergeCell ref="AA17:AA19"/>
-    <mergeCell ref="Y20:Y22"/>
-    <mergeCell ref="Z2:Z4"/>
-    <mergeCell ref="Z5:Z7"/>
-    <mergeCell ref="Z8:Z10"/>
-    <mergeCell ref="Z11:Z13"/>
-    <mergeCell ref="Z14:Z16"/>
-    <mergeCell ref="Z17:Z19"/>
-    <mergeCell ref="Z20:Z22"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Y5:Y7"/>
-    <mergeCell ref="Y8:Y10"/>
-    <mergeCell ref="Y11:Y13"/>
-    <mergeCell ref="Y14:Y16"/>
-    <mergeCell ref="Y17:Y19"/>
-    <mergeCell ref="T17:T19"/>
-    <mergeCell ref="T20:T22"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="X5:X7"/>
-    <mergeCell ref="X8:X10"/>
-    <mergeCell ref="X11:X13"/>
-    <mergeCell ref="X14:X16"/>
-    <mergeCell ref="X17:X19"/>
-    <mergeCell ref="X20:X22"/>
-    <mergeCell ref="T14:T16"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="B4:G10"/>
-    <mergeCell ref="B11:G12"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="B13:D22"/>
-    <mergeCell ref="E13:G22"/>
-    <mergeCell ref="L2:O3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="L4:O22"/>
-    <mergeCell ref="Q5:Q7"/>
-    <mergeCell ref="Q8:Q10"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="A27:D45"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="T40:T42"/>
-    <mergeCell ref="T43:T45"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="T28:T30"/>
-    <mergeCell ref="T31:T33"/>
-    <mergeCell ref="T34:T36"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="L25:O26"/>
-    <mergeCell ref="L27:O45"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="Q28:Q30"/>
-    <mergeCell ref="Q31:Q33"/>
-    <mergeCell ref="Q34:Q36"/>
-    <mergeCell ref="Q37:Q39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -6416,80 +6631,80 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" customHeight="1"/>
     <row r="2" spans="2:13" ht="18" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="I2" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="146" t="s">
@@ -6874,7 +7089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -6887,80 +7102,80 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" customHeight="1"/>
     <row r="2" spans="2:13" ht="18" customHeight="1">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="I2" s="80" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="I2" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="80"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
     </row>
     <row r="7" spans="2:13" ht="18" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
       <c r="B8" s="146"/>
@@ -7422,346 +7637,347 @@
       <c r="K5" s="26"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="22"/>
+      <c r="I6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="E6:F8"/>
-    <mergeCell ref="G6:H8"/>
-    <mergeCell ref="A6:D8"/>
-    <mergeCell ref="I6:K8"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="G13:H14"/>
-    <mergeCell ref="E15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="E17:F18"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="A4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I21:K22"/>
+    <mergeCell ref="I23:K24"/>
+    <mergeCell ref="I25:K26"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="I9:K10"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="I13:K14"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="I17:K18"/>
+    <mergeCell ref="I19:K20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="G23:H24"/>
+    <mergeCell ref="E25:F26"/>
     <mergeCell ref="A27:K28"/>
     <mergeCell ref="A9:D10"/>
     <mergeCell ref="A11:D12"/>
@@ -7778,22 +7994,21 @@
     <mergeCell ref="G9:H10"/>
     <mergeCell ref="E11:F12"/>
     <mergeCell ref="G11:H12"/>
-    <mergeCell ref="I21:K22"/>
-    <mergeCell ref="I23:K24"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="I9:K10"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="I13:K14"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="I17:K18"/>
-    <mergeCell ref="I19:K20"/>
-    <mergeCell ref="G19:H20"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="G23:H24"/>
-    <mergeCell ref="E25:F26"/>
+    <mergeCell ref="A1:K3"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="A4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="E6:F8"/>
+    <mergeCell ref="G6:H8"/>
+    <mergeCell ref="A6:D8"/>
+    <mergeCell ref="I6:K8"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="E15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="E17:F18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7825,82 +8040,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="29" t="s">
@@ -8040,82 +8255,82 @@
       <c r="G23" s="29"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="29" t="s">
@@ -8244,6 +8459,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A34:B38"/>
+    <mergeCell ref="C34:E38"/>
+    <mergeCell ref="F34:G38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A33:B33"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A10:G23"/>
     <mergeCell ref="A1:G2"/>
@@ -8253,12 +8474,6 @@
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A24:G25"/>
     <mergeCell ref="A26:G29"/>
-    <mergeCell ref="A34:B38"/>
-    <mergeCell ref="C34:E38"/>
-    <mergeCell ref="F34:G38"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A33:B33"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -8291,140 +8506,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="29"/>
@@ -8491,40 +8706,40 @@
       <c r="N12" s="29"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="29"/>
@@ -16310,24 +16525,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="54" t="s">
@@ -16544,69 +16759,69 @@
       <c r="G24" s="68"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3"/>
